--- a/LF/TAS/Burkina Faso/2024/oct/bf_lf_tas3_2410_1_site_part.xlsx
+++ b/LF/TAS/Burkina Faso/2024/oct/bf_lf_tas3_2410_1_site_part.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\TAS\Burkina Faso\2024\oct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA6CC6C-4FC6-464C-9934-9F68B55BA6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC48449-09DB-4AB1-B557-19B1D7D72D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1139,12 +1139,6 @@
     <t>Age</t>
   </si>
   <si>
-    <t>. &gt; 6 and . &lt; 7</t>
-  </si>
-  <si>
-    <t>Doit être comprise entre 5 et 110</t>
-  </si>
-  <si>
     <t>select_one sex_list</t>
   </si>
   <si>
@@ -1431,6 +1425,12 @@
   </si>
   <si>
     <t>40</t>
+  </si>
+  <si>
+    <t>Doit être comprise entre 6 et 11 ans</t>
+  </si>
+  <si>
+    <t>. &gt;= 6 and . &lt;= 11</t>
   </si>
 </sst>
 </file>
@@ -2588,7 +2588,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2776,7 +2776,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>328</v>
@@ -2885,10 +2885,10 @@
     </row>
     <row r="13" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C13" s="46"/>
       <c r="D13" s="47"/>
@@ -2898,7 +2898,7 @@
       <c r="H13" s="45"/>
       <c r="I13" s="44"/>
       <c r="J13" s="44" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K13" s="44"/>
       <c r="L13" s="44"/>
@@ -2906,13 +2906,13 @@
     </row>
     <row r="14" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="51" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D14" s="52"/>
       <c r="E14" s="51"/>
@@ -2928,10 +2928,10 @@
     </row>
     <row r="15" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C15" s="46"/>
       <c r="D15" s="47"/>
@@ -2941,7 +2941,7 @@
       <c r="H15" s="45"/>
       <c r="I15" s="44"/>
       <c r="J15" s="44" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K15" s="44"/>
       <c r="L15" s="44"/>
@@ -2949,10 +2949,10 @@
     </row>
     <row r="16" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="44" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C16" s="46"/>
       <c r="D16" s="47"/>
@@ -2962,7 +2962,7 @@
       <c r="H16" s="45"/>
       <c r="I16" s="44"/>
       <c r="J16" s="44" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="K16" s="44"/>
       <c r="L16" s="44"/>
@@ -2973,7 +2973,7 @@
         <v>339</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>340</v>
@@ -2997,13 +2997,13 @@
         <v>339</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>343</v>
       </c>
       <c r="F18" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>344</v>
@@ -3074,7 +3074,7 @@
         <v>339</v>
       </c>
       <c r="B22" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C22" t="s">
         <v>356</v>
@@ -3100,7 +3100,7 @@
         <v>339</v>
       </c>
       <c r="B23" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C23" t="s">
         <v>361</v>
@@ -3109,7 +3109,7 @@
         <v>357</v>
       </c>
       <c r="F23" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G23" t="s">
         <v>362</v>
@@ -3126,19 +3126,19 @@
         <v>339</v>
       </c>
       <c r="B24" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C24" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F24" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G24" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="J24" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="M24" t="s">
         <v>12</v>
@@ -3155,10 +3155,10 @@
         <v>364</v>
       </c>
       <c r="F25" t="s">
-        <v>365</v>
+        <v>462</v>
       </c>
       <c r="G25" t="s">
-        <v>366</v>
+        <v>461</v>
       </c>
       <c r="H25" t="s">
         <v>351</v>
@@ -3169,13 +3169,13 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B26" t="s">
+        <v>366</v>
+      </c>
+      <c r="C26" t="s">
         <v>367</v>
-      </c>
-      <c r="B26" t="s">
-        <v>368</v>
-      </c>
-      <c r="C26" t="s">
-        <v>369</v>
       </c>
       <c r="H26" t="s">
         <v>351</v>
@@ -3186,13 +3186,13 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="38" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C27" s="41" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D27" s="41"/>
       <c r="H27" t="s">
@@ -3207,10 +3207,10 @@
         <v>345</v>
       </c>
       <c r="B28" s="41" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C28" s="41" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D28" s="41"/>
       <c r="I28" s="7" t="s">
@@ -3230,13 +3230,13 @@
         <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C30" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H30" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I30" s="42"/>
       <c r="J30" s="42"/>
@@ -3248,7 +3248,7 @@
         <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C31" t="s">
         <v>16</v>
@@ -3256,7 +3256,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -3489,520 +3489,520 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B15" s="59" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C15" s="59" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D15" s="59"/>
       <c r="E15" s="58"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="B16" s="59" t="s">
         <v>422</v>
       </c>
-      <c r="B16" s="59" t="s">
-        <v>424</v>
-      </c>
       <c r="C16" s="59" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D16" s="59"/>
       <c r="E16" s="58"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C17" s="59" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D17" s="59"/>
       <c r="E17" s="58"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B18" s="59" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C18" s="59" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D18" s="59"/>
       <c r="E18" s="58"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B19" s="59" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C19" s="59" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D19" s="59"/>
       <c r="E19" s="58"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B20" s="59" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C20" s="59" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D20" s="59"/>
       <c r="E20" s="58"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B21" s="59" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C21" s="59" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D21" s="59"/>
       <c r="E21" s="58"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B22" s="59" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C22" s="59" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D22" s="59"/>
       <c r="E22" s="58"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B23" s="59" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C23" s="59" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D23" s="59"/>
       <c r="E23" s="58"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B24" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C24" s="59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D24" s="59"/>
       <c r="E24" s="58"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B25" s="59" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C25" s="59" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D25" s="59"/>
       <c r="E25" s="58"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B26" s="59" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C26" s="59" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D26" s="59"/>
       <c r="E26" s="58"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B27" s="59" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C27" s="59" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D27" s="59"/>
       <c r="E27" s="58"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B28" s="59" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C28" s="59" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D28" s="59"/>
       <c r="E28" s="58"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B29" s="59" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C29" s="59" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D29" s="59"/>
       <c r="E29" s="58"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B30" s="59" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C30" s="59" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D30" s="59"/>
       <c r="E30" s="58"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B31" s="59" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C31" s="59" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D31" s="59"/>
       <c r="E31" s="58"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B32" s="59" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C32" s="59" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D32" s="59"/>
       <c r="E32" s="58"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B33" s="59" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C33" s="59" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D33" s="59"/>
       <c r="E33" s="58"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B34" s="59" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C34" s="59" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D34" s="59"/>
       <c r="E34" s="58"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B35" s="59" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C35" s="59" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D35" s="59"/>
       <c r="E35" s="58"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B36" s="59" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C36" s="59" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D36" s="59"/>
       <c r="E36" s="58"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B37" s="59" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C37" s="59" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D37" s="59"/>
       <c r="E37" s="58"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B38" s="59" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C38" s="59" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D38" s="59"/>
       <c r="E38" s="58"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B39" s="59" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C39" s="59" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D39" s="59"/>
       <c r="E39" s="58"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B40" s="59" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C40" s="59" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D40" s="59"/>
       <c r="E40" s="58"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B41" s="59" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C41" s="59" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D41" s="59"/>
       <c r="E41" s="58"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B42" s="59" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C42" s="59" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D42" s="59"/>
       <c r="E42" s="58"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B43" s="59" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C43" s="59" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D43" s="59"/>
       <c r="E43" s="58"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B44" s="59" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C44" s="59" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D44" s="59"/>
       <c r="E44" s="58"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B45" s="59" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C45" s="59" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D45" s="59"/>
       <c r="E45" s="58"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B46" s="59" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C46" s="59" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D46" s="59"/>
       <c r="E46" s="58"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B47" s="59" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C47" s="59" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D47" s="59"/>
       <c r="E47" s="58"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B48" s="59" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C48" s="59" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D48" s="59"/>
       <c r="E48" s="58"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B49" s="59" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C49" s="59" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D49" s="59"/>
       <c r="E49" s="58"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B50" s="59" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C50" s="59" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D50" s="59"/>
       <c r="E50" s="58"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B51" s="59" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C51" s="59" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D51" s="59"/>
       <c r="E51" s="58"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B52" s="59" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C52" s="59" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D52" s="59"/>
       <c r="E52" s="58"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B53" s="59" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C53" s="59" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D53" s="59"/>
       <c r="E53" s="58"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B54" s="59" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C54" s="59" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D54" s="59"/>
       <c r="E54" s="58"/>
@@ -4067,32 +4067,32 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="B61" s="57" t="s">
+        <v>386</v>
+      </c>
+      <c r="C61" s="57" t="s">
         <v>387</v>
-      </c>
-      <c r="B61" s="57" t="s">
-        <v>388</v>
-      </c>
-      <c r="C61" s="57" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B62" s="57" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C62" s="57" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="60" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B64" s="57" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C64" s="61" t="s">
         <v>45</v>
@@ -4101,10 +4101,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="B65" s="57" t="s">
         <v>393</v>
-      </c>
-      <c r="B65" s="57" t="s">
-        <v>395</v>
       </c>
       <c r="C65" s="61" t="s">
         <v>47</v>
@@ -4118,24 +4118,24 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="B67" s="58" t="s">
+        <v>395</v>
+      </c>
+      <c r="C67" s="58" t="s">
         <v>396</v>
-      </c>
-      <c r="B67" s="58" t="s">
-        <v>397</v>
-      </c>
-      <c r="C67" s="58" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B68" s="58" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C68" s="58" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -4144,57 +4144,57 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B70" s="61" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C70" s="61" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="B71" s="61" t="s">
         <v>401</v>
       </c>
-      <c r="B71" s="61" t="s">
-        <v>403</v>
-      </c>
       <c r="C71" s="61" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B72" s="61" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C72" s="61" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B73" s="61" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C73" s="61" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B74" s="61" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C74" s="61" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">

--- a/LF/TAS/Burkina Faso/2024/oct/bf_lf_tas3_2410_1_site_part.xlsx
+++ b/LF/TAS/Burkina Faso/2024/oct/bf_lf_tas3_2410_1_site_part.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\TAS\Burkina Faso\2024\oct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237582CD-1E10-494E-A199-F7F85D6E25ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D963CB9F-2D88-4FE8-8348-6A15290576F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -1004,9 +1004,6 @@
     <t>not(selected(${C3}, ${p_code_id}))</t>
   </si>
   <si>
-    <t>La valeur ne doit pas être supérieure à l'âge</t>
-  </si>
-  <si>
     <t>p_manual_code</t>
   </si>
   <si>
@@ -1040,12 +1037,6 @@
     <t>nb_grappe</t>
   </si>
   <si>
-    <t>bf_lf_tas3_2410_1_site_part_v2</t>
-  </si>
-  <si>
-    <t>(Oct 2024) Burkina Faso TAS3 - 1. Formulaire Village &amp; Participant V2</t>
-  </si>
-  <si>
     <t>UE</t>
   </si>
   <si>
@@ -1634,9 +1625,6 @@
     <t>40 (NIOGSIN)</t>
   </si>
   <si>
-    <t>bf_tas_p_24102</t>
-  </si>
-  <si>
     <t>village_list = ${c_grappe1}</t>
   </si>
   <si>
@@ -1653,6 +1641,18 @@
   </si>
   <si>
     <t>Doit être comprise entre 6 et 7 ans</t>
+  </si>
+  <si>
+    <t>bf_tas_p_24103</t>
+  </si>
+  <si>
+    <t>(Oct 2024) Burkina Faso TAS3 - 1. Formulaire Village &amp; Participant V3</t>
+  </si>
+  <si>
+    <t>bf_lf_tas3_2410_1_site_part_v3</t>
+  </si>
+  <si>
+    <t>Cet identifiant a déjà été utilisé dans ce village.</t>
   </si>
 </sst>
 </file>
@@ -2257,10 +2257,10 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A30" sqref="A30:XFD30"/>
+      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2388,7 +2388,7 @@
         <v>237</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -2404,13 +2404,13 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -2443,7 +2443,7 @@
         <v>12</v>
       </c>
       <c r="L7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -2491,10 +2491,10 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>247</v>
@@ -2504,24 +2504,24 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L10" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>371</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>374</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -2545,7 +2545,7 @@
         <v>244</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -2570,7 +2570,7 @@
         <v>246</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -2581,7 +2581,7 @@
         <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="M13" t="s">
         <v>12</v>
@@ -2635,7 +2635,7 @@
         <v>290</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C16" s="28" t="s">
         <v>291</v>
@@ -2699,7 +2699,7 @@
         <v>255</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>256</v>
@@ -2723,13 +2723,13 @@
         <v>255</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>259</v>
       </c>
       <c r="F20" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>260</v>
@@ -2800,7 +2800,7 @@
         <v>255</v>
       </c>
       <c r="B24" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C24" t="s">
         <v>272</v>
@@ -2826,7 +2826,7 @@
         <v>255</v>
       </c>
       <c r="B25" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C25" t="s">
         <v>277</v>
@@ -2835,7 +2835,7 @@
         <v>273</v>
       </c>
       <c r="F25" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G25" t="s">
         <v>278</v>
@@ -2861,10 +2861,10 @@
         <v>320</v>
       </c>
       <c r="G26" t="s">
-        <v>321</v>
+        <v>537</v>
       </c>
       <c r="J26" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M26" t="s">
         <v>12</v>
@@ -2881,10 +2881,10 @@
         <v>280</v>
       </c>
       <c r="F27" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="G27" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="H27" t="s">
         <v>267</v>
@@ -2915,7 +2915,7 @@
         <v>261</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>284</v>
@@ -2959,7 +2959,7 @@
         <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C32" t="s">
         <v>16</v>
@@ -3037,7 +3037,7 @@
         <v>20</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>47</v>
@@ -3496,10 +3496,10 @@
         <v>20</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C44" s="33" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D44" s="33" t="s">
         <v>85</v>
@@ -3514,7 +3514,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B46" s="32" t="s">
         <v>133</v>
@@ -3523,26 +3523,26 @@
         <v>133</v>
       </c>
       <c r="E46" s="33" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B47" s="32" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C47" s="32" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E47" s="33" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B48" s="32" t="s">
         <v>91</v>
@@ -3551,12 +3551,12 @@
         <v>91</v>
       </c>
       <c r="E48" s="33" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B49" s="32" t="s">
         <v>94</v>
@@ -3565,12 +3565,12 @@
         <v>94</v>
       </c>
       <c r="E49" s="33" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B50" s="32" t="s">
         <v>66</v>
@@ -3584,7 +3584,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B51" s="32" t="s">
         <v>75</v>
@@ -3598,7 +3598,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B52" s="32" t="s">
         <v>78</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B53" s="32" t="s">
         <v>82</v>
@@ -3626,7 +3626,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B54" s="32" t="s">
         <v>112</v>
@@ -3640,7 +3640,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B55" s="32" t="s">
         <v>113</v>
@@ -3654,7 +3654,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B56" s="32" t="s">
         <v>116</v>
@@ -3668,7 +3668,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B57" s="32" t="s">
         <v>111</v>
@@ -3682,7 +3682,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B58" s="32" t="s">
         <v>123</v>
@@ -3696,7 +3696,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B59" s="32" t="s">
         <v>100</v>
@@ -3710,7 +3710,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B60" s="32" t="s">
         <v>99</v>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B61" s="32" t="s">
         <v>103</v>
@@ -3863,7 +3863,7 @@
         <v>95</v>
       </c>
       <c r="F71" s="33" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -3877,7 +3877,7 @@
         <v>141</v>
       </c>
       <c r="F72" s="33" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -3891,7 +3891,7 @@
         <v>142</v>
       </c>
       <c r="F73" s="33" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -3905,7 +3905,7 @@
         <v>96</v>
       </c>
       <c r="F74" s="33" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -4039,10 +4039,10 @@
         <v>47</v>
       </c>
       <c r="B84" s="32" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C84" s="32" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F84" s="33" t="s">
         <v>66</v>
@@ -4095,10 +4095,10 @@
         <v>47</v>
       </c>
       <c r="B88" s="32" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C88" s="32" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F88" s="33" t="s">
         <v>66</v>
@@ -4854,10 +4854,10 @@
         <v>46</v>
       </c>
       <c r="B143" s="32" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C143" s="32" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G143" s="32" t="s">
         <v>153</v>
@@ -4868,10 +4868,10 @@
         <v>46</v>
       </c>
       <c r="B144" s="32" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C144" s="32" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G144" s="32" t="s">
         <v>153</v>
@@ -4910,10 +4910,10 @@
         <v>46</v>
       </c>
       <c r="B147" s="32" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C147" s="32" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G147" s="32" t="s">
         <v>86</v>
@@ -4924,10 +4924,10 @@
         <v>46</v>
       </c>
       <c r="B148" s="32" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C148" s="32" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G148" s="32" t="s">
         <v>86</v>
@@ -5064,10 +5064,10 @@
         <v>46</v>
       </c>
       <c r="B158" s="32" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C158" s="32" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G158" s="32" t="s">
         <v>147</v>
@@ -5078,10 +5078,10 @@
         <v>46</v>
       </c>
       <c r="B159" s="32" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C159" s="32" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G159" s="32" t="s">
         <v>147</v>
@@ -5274,10 +5274,10 @@
         <v>46</v>
       </c>
       <c r="B173" s="32" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C173" s="32" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G173" s="32" t="s">
         <v>117</v>
@@ -5316,10 +5316,10 @@
         <v>46</v>
       </c>
       <c r="B176" s="32" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C176" s="32" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G176" s="32" t="s">
         <v>100</v>
@@ -5624,10 +5624,10 @@
         <v>46</v>
       </c>
       <c r="B198" s="32" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C198" s="32" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G198" s="32" t="s">
         <v>75</v>
@@ -5666,10 +5666,10 @@
         <v>46</v>
       </c>
       <c r="B201" s="32" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C201" s="32" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G201" s="32" t="s">
         <v>92</v>
@@ -5764,10 +5764,10 @@
         <v>46</v>
       </c>
       <c r="B208" s="32" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C208" s="32" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G208" s="32" t="s">
         <v>149</v>
@@ -5946,10 +5946,10 @@
         <v>46</v>
       </c>
       <c r="B221" s="32" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C221" s="32" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G221" s="32" t="s">
         <v>106</v>
@@ -5974,10 +5974,10 @@
         <v>46</v>
       </c>
       <c r="B223" s="32" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C223" s="32" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G223" s="32" t="s">
         <v>80</v>
@@ -6016,10 +6016,10 @@
         <v>46</v>
       </c>
       <c r="B226" s="32" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C226" s="32" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G226" s="32" t="s">
         <v>94</v>
@@ -6030,10 +6030,10 @@
         <v>46</v>
       </c>
       <c r="B227" s="32" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C227" s="32" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G227" s="32" t="s">
         <v>94</v>
@@ -6156,10 +6156,10 @@
         <v>46</v>
       </c>
       <c r="B236" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C236" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G236" s="32" t="s">
         <v>116</v>
@@ -6218,7 +6218,7 @@
         <v>160</v>
       </c>
       <c r="G240" s="32" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
@@ -6240,10 +6240,10 @@
         <v>46</v>
       </c>
       <c r="B242" s="32" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C242" s="32" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G242" s="32" t="s">
         <v>134</v>
@@ -6282,13 +6282,13 @@
         <v>46</v>
       </c>
       <c r="B245" s="32" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C245" s="32" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G245" s="32" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
@@ -6366,10 +6366,10 @@
         <v>46</v>
       </c>
       <c r="B251" s="32" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C251" s="32" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G251" s="32" t="s">
         <v>150</v>
@@ -6380,10 +6380,10 @@
         <v>46</v>
       </c>
       <c r="B252" s="32" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C252" s="32" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G252" s="32" t="s">
         <v>150</v>
@@ -6450,10 +6450,10 @@
         <v>46</v>
       </c>
       <c r="B257" s="32" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C257" s="32" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G257" s="32" t="s">
         <v>148</v>
@@ -6464,10 +6464,10 @@
         <v>46</v>
       </c>
       <c r="B258" s="32" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C258" s="32" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G258" s="32" t="s">
         <v>151</v>
@@ -6604,10 +6604,10 @@
         <v>46</v>
       </c>
       <c r="B268" s="32" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C268" s="32" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G268" s="32" t="s">
         <v>99</v>
@@ -6632,10 +6632,10 @@
         <v>46</v>
       </c>
       <c r="B270" s="32" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C270" s="32" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G270" s="32" t="s">
         <v>99</v>
@@ -6646,10 +6646,10 @@
         <v>46</v>
       </c>
       <c r="B271" s="32" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C271" s="32" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G271" s="32" t="s">
         <v>99</v>
@@ -6688,10 +6688,10 @@
         <v>46</v>
       </c>
       <c r="B274" s="32" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C274" s="32" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G274" s="32" t="s">
         <v>99</v>
@@ -6702,10 +6702,10 @@
         <v>46</v>
       </c>
       <c r="B275" s="32" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C275" s="32" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G275" s="32" t="s">
         <v>99</v>
@@ -6730,10 +6730,10 @@
         <v>46</v>
       </c>
       <c r="B277" s="32" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C277" s="32" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G277" s="32" t="s">
         <v>99</v>
@@ -6758,10 +6758,10 @@
         <v>46</v>
       </c>
       <c r="B279" s="32" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C279" s="32" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G279" s="32" t="s">
         <v>141</v>
@@ -6786,10 +6786,10 @@
         <v>46</v>
       </c>
       <c r="B281" s="32" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C281" s="32" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G281" s="32" t="s">
         <v>141</v>
@@ -6800,10 +6800,10 @@
         <v>46</v>
       </c>
       <c r="B282" s="32" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C282" s="32" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G282" s="32" t="s">
         <v>141</v>
@@ -7282,7 +7282,7 @@
         <v>248</v>
       </c>
       <c r="G316" s="32" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
@@ -7338,7 +7338,7 @@
         <v>248</v>
       </c>
       <c r="G320" s="32" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
@@ -8032,7 +8032,7 @@
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B371" s="32">
         <v>1</v>
@@ -8046,7 +8046,7 @@
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B372" s="32">
         <v>2</v>
@@ -8060,7 +8060,7 @@
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B373" s="32">
         <v>3</v>
@@ -8074,7 +8074,7 @@
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B374" s="32">
         <v>4</v>
@@ -8088,7 +8088,7 @@
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B375" s="32">
         <v>5</v>
@@ -8102,7 +8102,7 @@
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B376" s="32">
         <v>6</v>
@@ -8116,7 +8116,7 @@
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B377" s="32">
         <v>7</v>
@@ -8125,12 +8125,12 @@
         <v>7</v>
       </c>
       <c r="H377" s="32" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B378" s="32">
         <v>8</v>
@@ -8139,12 +8139,12 @@
         <v>8</v>
       </c>
       <c r="H378" s="32" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B379" s="32">
         <v>9</v>
@@ -8158,7 +8158,7 @@
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B380" s="32">
         <v>10</v>
@@ -8172,7 +8172,7 @@
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B381" s="32">
         <v>11</v>
@@ -8186,7 +8186,7 @@
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B382" s="32">
         <v>12</v>
@@ -8200,7 +8200,7 @@
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B383" s="32">
         <v>13</v>
@@ -8214,7 +8214,7 @@
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B384" s="32">
         <v>14</v>
@@ -8223,12 +8223,12 @@
         <v>14</v>
       </c>
       <c r="H384" s="32" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B385" s="32">
         <v>15</v>
@@ -8242,7 +8242,7 @@
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B386" s="32">
         <v>16</v>
@@ -8256,7 +8256,7 @@
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B387" s="32">
         <v>17</v>
@@ -8270,7 +8270,7 @@
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B388" s="32">
         <v>18</v>
@@ -8284,7 +8284,7 @@
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B389" s="32">
         <v>19</v>
@@ -8298,7 +8298,7 @@
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B390" s="32">
         <v>20</v>
@@ -8312,7 +8312,7 @@
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B391" s="32">
         <v>21</v>
@@ -8321,12 +8321,12 @@
         <v>21</v>
       </c>
       <c r="H391" s="32" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B392" s="32">
         <v>22</v>
@@ -8340,7 +8340,7 @@
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B393" s="32">
         <v>23</v>
@@ -8354,7 +8354,7 @@
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B394" s="32">
         <v>24</v>
@@ -8368,7 +8368,7 @@
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B395" s="32">
         <v>25</v>
@@ -8382,7 +8382,7 @@
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B396" s="32">
         <v>26</v>
@@ -8396,7 +8396,7 @@
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B397" s="32">
         <v>27</v>
@@ -8410,7 +8410,7 @@
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B398" s="32">
         <v>28</v>
@@ -8419,12 +8419,12 @@
         <v>28</v>
       </c>
       <c r="H398" s="32" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B399" s="32">
         <v>29</v>
@@ -8438,7 +8438,7 @@
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B400" s="32">
         <v>30</v>
@@ -8452,7 +8452,7 @@
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B401" s="32">
         <v>31</v>
@@ -8466,7 +8466,7 @@
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B402" s="32">
         <v>32</v>
@@ -8475,12 +8475,12 @@
         <v>32</v>
       </c>
       <c r="H402" s="32" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B403" s="32">
         <v>36</v>
@@ -8494,7 +8494,7 @@
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B404" s="32">
         <v>37</v>
@@ -8508,7 +8508,7 @@
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B405" s="32">
         <v>38</v>
@@ -8522,7 +8522,7 @@
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B406" s="32">
         <v>33</v>
@@ -8531,12 +8531,12 @@
         <v>33</v>
       </c>
       <c r="H406" s="32" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B407" s="32">
         <v>34</v>
@@ -8545,12 +8545,12 @@
         <v>34</v>
       </c>
       <c r="H407" s="32" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B408" s="32">
         <v>35</v>
@@ -8564,7 +8564,7 @@
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B409" s="32">
         <v>1</v>
@@ -8578,7 +8578,7 @@
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B410" s="32">
         <v>2</v>
@@ -8592,7 +8592,7 @@
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B411" s="32">
         <v>3</v>
@@ -8606,7 +8606,7 @@
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B412" s="32">
         <v>4</v>
@@ -8620,7 +8620,7 @@
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B413" s="32">
         <v>5</v>
@@ -8634,7 +8634,7 @@
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B414" s="32">
         <v>6</v>
@@ -8648,7 +8648,7 @@
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B415" s="32">
         <v>7</v>
@@ -8657,12 +8657,12 @@
         <v>7</v>
       </c>
       <c r="H415" s="32" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B416" s="32">
         <v>8</v>
@@ -8676,7 +8676,7 @@
     </row>
     <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B417" s="32">
         <v>9</v>
@@ -8690,7 +8690,7 @@
     </row>
     <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B418" s="32">
         <v>10</v>
@@ -8699,12 +8699,12 @@
         <v>10</v>
       </c>
       <c r="H418" s="32" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B419" s="32">
         <v>11</v>
@@ -8713,12 +8713,12 @@
         <v>11</v>
       </c>
       <c r="H419" s="32" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B420" s="32">
         <v>12</v>
@@ -8732,7 +8732,7 @@
     </row>
     <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B421" s="32">
         <v>13</v>
@@ -8741,12 +8741,12 @@
         <v>13</v>
       </c>
       <c r="H421" s="32" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B422" s="32">
         <v>14</v>
@@ -8760,7 +8760,7 @@
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B423" s="32">
         <v>15</v>
@@ -8774,7 +8774,7 @@
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B424" s="32">
         <v>16</v>
@@ -8788,7 +8788,7 @@
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B425" s="32">
         <v>17</v>
@@ -8802,7 +8802,7 @@
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B426" s="32">
         <v>18</v>
@@ -8816,7 +8816,7 @@
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B427" s="32">
         <v>19</v>
@@ -8830,7 +8830,7 @@
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B428" s="32">
         <v>20</v>
@@ -8844,7 +8844,7 @@
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B429" s="32">
         <v>21</v>
@@ -8858,7 +8858,7 @@
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B430" s="32">
         <v>22</v>
@@ -8872,7 +8872,7 @@
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B431" s="32">
         <v>23</v>
@@ -8886,7 +8886,7 @@
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B432" s="32">
         <v>24</v>
@@ -8895,12 +8895,12 @@
         <v>24</v>
       </c>
       <c r="H432" s="32" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B433" s="32">
         <v>25</v>
@@ -8909,12 +8909,12 @@
         <v>25</v>
       </c>
       <c r="H433" s="32" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B434" s="32">
         <v>26</v>
@@ -8923,12 +8923,12 @@
         <v>26</v>
       </c>
       <c r="H434" s="32" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B435" s="32">
         <v>27</v>
@@ -8937,12 +8937,12 @@
         <v>27</v>
       </c>
       <c r="H435" s="32" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B436" s="32">
         <v>28</v>
@@ -8956,7 +8956,7 @@
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B437" s="32">
         <v>29</v>
@@ -8970,7 +8970,7 @@
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B438" s="32">
         <v>30</v>
@@ -8984,7 +8984,7 @@
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B439" s="32">
         <v>31</v>
@@ -8998,7 +8998,7 @@
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B440" s="32">
         <v>32</v>
@@ -9007,12 +9007,12 @@
         <v>32</v>
       </c>
       <c r="H440" s="32" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B441" s="32">
         <v>33</v>
@@ -9021,12 +9021,12 @@
         <v>33</v>
       </c>
       <c r="H441" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B442" s="32">
         <v>34</v>
@@ -9040,7 +9040,7 @@
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B443" s="32">
         <v>35</v>
@@ -9054,7 +9054,7 @@
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B444" s="32">
         <v>36</v>
@@ -9068,7 +9068,7 @@
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B445" s="32">
         <v>37</v>
@@ -9082,7 +9082,7 @@
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B446" s="32">
         <v>38</v>
@@ -9096,7 +9096,7 @@
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B447" s="32">
         <v>39</v>
@@ -9110,7 +9110,7 @@
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B448" s="32">
         <v>40</v>
@@ -9119,12 +9119,12 @@
         <v>40</v>
       </c>
       <c r="H448" s="32" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B449" s="32">
         <v>1</v>
@@ -9138,7 +9138,7 @@
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B450" s="32">
         <v>2</v>
@@ -9152,7 +9152,7 @@
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B451" s="32">
         <v>3</v>
@@ -9166,7 +9166,7 @@
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B452" s="32">
         <v>4</v>
@@ -9180,7 +9180,7 @@
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B453" s="32">
         <v>5</v>
@@ -9194,7 +9194,7 @@
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B454" s="32">
         <v>6</v>
@@ -9208,7 +9208,7 @@
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B455" s="32">
         <v>7</v>
@@ -9222,7 +9222,7 @@
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B456" s="32">
         <v>8</v>
@@ -9236,7 +9236,7 @@
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B457" s="32">
         <v>9</v>
@@ -9245,12 +9245,12 @@
         <v>9</v>
       </c>
       <c r="H457" s="32" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B458" s="32">
         <v>10</v>
@@ -9264,7 +9264,7 @@
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B459" s="32">
         <v>11</v>
@@ -9273,12 +9273,12 @@
         <v>11</v>
       </c>
       <c r="H459" s="32" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B460" s="32">
         <v>12</v>
@@ -9292,7 +9292,7 @@
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B461" s="32">
         <v>13</v>
@@ -9306,7 +9306,7 @@
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B462" s="32">
         <v>14</v>
@@ -9320,7 +9320,7 @@
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B463" s="32">
         <v>15</v>
@@ -9334,7 +9334,7 @@
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B464" s="32">
         <v>16</v>
@@ -9343,12 +9343,12 @@
         <v>16</v>
       </c>
       <c r="H464" s="32" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B465" s="32">
         <v>17</v>
@@ -9362,7 +9362,7 @@
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B466" s="32">
         <v>18</v>
@@ -9376,7 +9376,7 @@
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B467" s="32">
         <v>19</v>
@@ -9385,12 +9385,12 @@
         <v>19</v>
       </c>
       <c r="H467" s="32" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B468" s="32">
         <v>20</v>
@@ -9404,7 +9404,7 @@
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B469" s="32">
         <v>21</v>
@@ -9418,7 +9418,7 @@
     </row>
     <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B470" s="32">
         <v>22</v>
@@ -9427,12 +9427,12 @@
         <v>22</v>
       </c>
       <c r="H470" s="32" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B471" s="32">
         <v>23</v>
@@ -9441,12 +9441,12 @@
         <v>23</v>
       </c>
       <c r="H471" s="32" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B472" s="32">
         <v>24</v>
@@ -9460,7 +9460,7 @@
     </row>
     <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B473" s="32">
         <v>25</v>
@@ -9474,7 +9474,7 @@
     </row>
     <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B474" s="32">
         <v>26</v>
@@ -9488,7 +9488,7 @@
     </row>
     <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B475" s="32">
         <v>27</v>
@@ -9502,7 +9502,7 @@
     </row>
     <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B476" s="32">
         <v>28</v>
@@ -9511,12 +9511,12 @@
         <v>28</v>
       </c>
       <c r="H476" s="32" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B477" s="32">
         <v>29</v>
@@ -9530,7 +9530,7 @@
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B478" s="32">
         <v>30</v>
@@ -9539,12 +9539,12 @@
         <v>30</v>
       </c>
       <c r="H478" s="32" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B479" s="32">
         <v>31</v>
@@ -9558,7 +9558,7 @@
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B480" s="32">
         <v>32</v>
@@ -9572,7 +9572,7 @@
     </row>
     <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B481" s="32">
         <v>33</v>
@@ -9586,7 +9586,7 @@
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B482" s="32">
         <v>34</v>
@@ -9600,7 +9600,7 @@
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B483" s="32">
         <v>35</v>
@@ -9614,7 +9614,7 @@
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B484" s="32">
         <v>36</v>
@@ -9628,7 +9628,7 @@
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B485" s="32">
         <v>37</v>
@@ -9642,7 +9642,7 @@
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B486" s="32">
         <v>38</v>
@@ -9656,7 +9656,7 @@
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B487" s="32">
         <v>1</v>
@@ -9670,7 +9670,7 @@
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B488" s="32">
         <v>2</v>
@@ -9684,7 +9684,7 @@
     </row>
     <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B489" s="32">
         <v>3</v>
@@ -9698,7 +9698,7 @@
     </row>
     <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B490" s="32">
         <v>4</v>
@@ -9712,7 +9712,7 @@
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B491" s="32">
         <v>5</v>
@@ -9726,7 +9726,7 @@
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B492" s="32">
         <v>6</v>
@@ -9740,7 +9740,7 @@
     </row>
     <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B493" s="32">
         <v>7</v>
@@ -9754,7 +9754,7 @@
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A494" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B494" s="32">
         <v>8</v>
@@ -9768,7 +9768,7 @@
     </row>
     <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B495" s="32">
         <v>9</v>
@@ -9777,12 +9777,12 @@
         <v>9</v>
       </c>
       <c r="H495" s="32" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B496" s="32">
         <v>10</v>
@@ -9796,7 +9796,7 @@
     </row>
     <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B497" s="32">
         <v>11</v>
@@ -9810,7 +9810,7 @@
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B498" s="32">
         <v>12</v>
@@ -9824,7 +9824,7 @@
     </row>
     <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B499" s="32">
         <v>13</v>
@@ -9838,7 +9838,7 @@
     </row>
     <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B500" s="32">
         <v>14</v>
@@ -9852,7 +9852,7 @@
     </row>
     <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B501" s="32">
         <v>15</v>
@@ -9866,7 +9866,7 @@
     </row>
     <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B502" s="32">
         <v>16</v>
@@ -9880,7 +9880,7 @@
     </row>
     <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B503" s="32">
         <v>17</v>
@@ -9894,7 +9894,7 @@
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B504" s="32">
         <v>18</v>
@@ -9903,12 +9903,12 @@
         <v>18</v>
       </c>
       <c r="H504" s="32" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B505" s="32">
         <v>19</v>
@@ -9922,7 +9922,7 @@
     </row>
     <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B506" s="32">
         <v>20</v>
@@ -9936,7 +9936,7 @@
     </row>
     <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B507" s="32">
         <v>21</v>
@@ -9950,7 +9950,7 @@
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B508" s="32">
         <v>22</v>
@@ -9964,7 +9964,7 @@
     </row>
     <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B509" s="32">
         <v>23</v>
@@ -9978,7 +9978,7 @@
     </row>
     <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B510" s="32">
         <v>24</v>
@@ -9992,7 +9992,7 @@
     </row>
     <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B511" s="32">
         <v>25</v>
@@ -10001,12 +10001,12 @@
         <v>25</v>
       </c>
       <c r="H511" s="32" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B512" s="32">
         <v>26</v>
@@ -10020,7 +10020,7 @@
     </row>
     <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B513" s="32">
         <v>27</v>
@@ -10034,7 +10034,7 @@
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B514" s="32">
         <v>28</v>
@@ -10048,7 +10048,7 @@
     </row>
     <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B515" s="32">
         <v>29</v>
@@ -10062,7 +10062,7 @@
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B516" s="32">
         <v>30</v>
@@ -10076,7 +10076,7 @@
     </row>
     <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B517" s="32">
         <v>31</v>
@@ -10090,7 +10090,7 @@
     </row>
     <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B518" s="32">
         <v>32</v>
@@ -10104,7 +10104,7 @@
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B519" s="32">
         <v>33</v>
@@ -10118,7 +10118,7 @@
     </row>
     <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B520" s="32">
         <v>34</v>
@@ -10127,12 +10127,12 @@
         <v>34</v>
       </c>
       <c r="H520" s="32" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B521" s="32">
         <v>35</v>
@@ -10146,7 +10146,7 @@
     </row>
     <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B522" s="32">
         <v>36</v>
@@ -10160,7 +10160,7 @@
     </row>
     <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B523" s="32">
         <v>37</v>
@@ -10174,7 +10174,7 @@
     </row>
     <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B524" s="32">
         <v>38</v>
@@ -10188,7 +10188,7 @@
     </row>
     <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B525" s="32">
         <v>39</v>
@@ -10202,7 +10202,7 @@
     </row>
     <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B526" s="32">
         <v>40</v>
@@ -10216,13 +10216,13 @@
     </row>
     <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B528" s="32">
         <v>1</v>
       </c>
       <c r="C528" s="32" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G528" s="32" t="s">
         <v>100</v>
@@ -10230,13 +10230,13 @@
     </row>
     <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B529" s="32">
         <v>2</v>
       </c>
       <c r="C529" s="32" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G529" s="32" t="s">
         <v>101</v>
@@ -10244,13 +10244,13 @@
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B530" s="32">
         <v>3</v>
       </c>
       <c r="C530" s="32" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G530" s="32" t="s">
         <v>101</v>
@@ -10258,13 +10258,13 @@
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B531" s="32">
         <v>4</v>
       </c>
       <c r="C531" s="32" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G531" s="32" t="s">
         <v>102</v>
@@ -10272,13 +10272,13 @@
     </row>
     <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B532" s="32">
         <v>5</v>
       </c>
       <c r="C532" s="32" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G532" s="32" t="s">
         <v>104</v>
@@ -10286,13 +10286,13 @@
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B533" s="32">
         <v>6</v>
       </c>
       <c r="C533" s="32" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G533" s="32" t="s">
         <v>99</v>
@@ -10300,13 +10300,13 @@
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B534" s="32">
         <v>7</v>
       </c>
       <c r="C534" s="32" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G534" s="32" t="s">
         <v>99</v>
@@ -10314,13 +10314,13 @@
     </row>
     <row r="535" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A535" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B535" s="32">
         <v>8</v>
       </c>
       <c r="C535" s="32" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G535" s="32" t="s">
         <v>99</v>
@@ -10328,13 +10328,13 @@
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A536" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B536" s="32">
         <v>9</v>
       </c>
       <c r="C536" s="32" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G536" s="32" t="s">
         <v>105</v>
@@ -10342,13 +10342,13 @@
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A537" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B537" s="32">
         <v>10</v>
       </c>
       <c r="C537" s="32" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G537" s="32" t="s">
         <v>210</v>
@@ -10356,13 +10356,13 @@
     </row>
     <row r="538" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A538" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B538" s="32">
         <v>11</v>
       </c>
       <c r="C538" s="32" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G538" s="32" t="s">
         <v>210</v>
@@ -10370,13 +10370,13 @@
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A539" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B539" s="32">
         <v>12</v>
       </c>
       <c r="C539" s="32" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G539" s="32" t="s">
         <v>106</v>
@@ -10384,13 +10384,13 @@
     </row>
     <row r="540" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A540" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B540" s="32">
         <v>13</v>
       </c>
       <c r="C540" s="32" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G540" s="32" t="s">
         <v>107</v>
@@ -10398,13 +10398,13 @@
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A541" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B541" s="32">
         <v>14</v>
       </c>
       <c r="C541" s="32" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G541" s="32" t="s">
         <v>99</v>
@@ -10412,13 +10412,13 @@
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B542" s="32">
         <v>15</v>
       </c>
       <c r="C542" s="32" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G542" s="32" t="s">
         <v>99</v>
@@ -10426,13 +10426,13 @@
     </row>
     <row r="543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A543" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B543" s="32">
         <v>16</v>
       </c>
       <c r="C543" s="32" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G543" s="32" t="s">
         <v>108</v>
@@ -10440,13 +10440,13 @@
     </row>
     <row r="544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A544" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B544" s="32">
         <v>17</v>
       </c>
       <c r="C544" s="32" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G544" s="32" t="s">
         <v>108</v>
@@ -10454,13 +10454,13 @@
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A545" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B545" s="32">
         <v>18</v>
       </c>
       <c r="C545" s="32" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G545" s="32" t="s">
         <v>109</v>
@@ -10468,13 +10468,13 @@
     </row>
     <row r="546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A546" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B546" s="32">
         <v>19</v>
       </c>
       <c r="C546" s="32" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G546" s="32" t="s">
         <v>110</v>
@@ -10482,13 +10482,13 @@
     </row>
     <row r="547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A547" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B547" s="32">
         <v>20</v>
       </c>
       <c r="C547" s="32" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G547" s="32" t="s">
         <v>104</v>
@@ -10496,13 +10496,13 @@
     </row>
     <row r="548" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A548" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B548" s="32">
         <v>21</v>
       </c>
       <c r="C548" s="32" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G548" s="32" t="s">
         <v>99</v>
@@ -10510,13 +10510,13 @@
     </row>
     <row r="549" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A549" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B549" s="32">
         <v>22</v>
       </c>
       <c r="C549" s="32" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G549" s="32" t="s">
         <v>99</v>
@@ -10524,13 +10524,13 @@
     </row>
     <row r="550" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A550" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B550" s="32">
         <v>23</v>
       </c>
       <c r="C550" s="32" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G550" s="32" t="s">
         <v>99</v>
@@ -10538,13 +10538,13 @@
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A551" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B551" s="32">
         <v>24</v>
       </c>
       <c r="C551" s="32" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G551" s="32" t="s">
         <v>210</v>
@@ -10552,13 +10552,13 @@
     </row>
     <row r="552" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A552" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B552" s="32">
         <v>25</v>
       </c>
       <c r="C552" s="32" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G552" s="32" t="s">
         <v>110</v>
@@ -10566,13 +10566,13 @@
     </row>
     <row r="553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A553" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B553" s="32">
         <v>26</v>
       </c>
       <c r="C553" s="32" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G553" s="32" t="s">
         <v>103</v>
@@ -10580,13 +10580,13 @@
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A554" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B554" s="32">
         <v>27</v>
       </c>
       <c r="C554" s="32" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G554" s="32" t="s">
         <v>100</v>
@@ -10594,13 +10594,13 @@
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A555" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B555" s="32">
         <v>28</v>
       </c>
       <c r="C555" s="32" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G555" s="32" t="s">
         <v>100</v>
@@ -10608,13 +10608,13 @@
     </row>
     <row r="556" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A556" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B556" s="32">
         <v>29</v>
       </c>
       <c r="C556" s="32" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G556" s="32" t="s">
         <v>101</v>
@@ -10622,13 +10622,13 @@
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A557" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B557" s="32">
         <v>30</v>
       </c>
       <c r="C557" s="32" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G557" s="32" t="s">
         <v>102</v>
@@ -10636,13 +10636,13 @@
     </row>
     <row r="558" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A558" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B558" s="32">
         <v>31</v>
       </c>
       <c r="C558" s="32" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="G558" s="32" t="s">
         <v>102</v>
@@ -10650,13 +10650,13 @@
     </row>
     <row r="559" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A559" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B559" s="32">
         <v>32</v>
       </c>
       <c r="C559" s="32" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G559" s="32" t="s">
         <v>99</v>
@@ -10664,13 +10664,13 @@
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A560" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B560" s="32">
         <v>36</v>
       </c>
       <c r="C560" s="32" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="G560" s="32" t="s">
         <v>108</v>
@@ -10678,13 +10678,13 @@
     </row>
     <row r="561" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A561" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B561" s="32">
         <v>37</v>
       </c>
       <c r="C561" s="32" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G561" s="32" t="s">
         <v>109</v>
@@ -10692,13 +10692,13 @@
     </row>
     <row r="562" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A562" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B562" s="32">
         <v>38</v>
       </c>
       <c r="C562" s="32" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="G562" s="32" t="s">
         <v>104</v>
@@ -10706,13 +10706,13 @@
     </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A563" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B563" s="32">
         <v>33</v>
       </c>
       <c r="C563" s="32" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G563" s="32" t="s">
         <v>99</v>
@@ -10720,13 +10720,13 @@
     </row>
     <row r="564" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A564" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B564" s="32">
         <v>34</v>
       </c>
       <c r="C564" s="32" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="G564" s="32" t="s">
         <v>106</v>
@@ -10734,13 +10734,13 @@
     </row>
     <row r="565" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A565" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B565" s="32">
         <v>35</v>
       </c>
       <c r="C565" s="32" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G565" s="32" t="s">
         <v>107</v>
@@ -10748,13 +10748,13 @@
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A566" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B566" s="32">
         <v>1</v>
       </c>
       <c r="C566" s="32" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="G566" s="32" t="s">
         <v>112</v>
@@ -10762,13 +10762,13 @@
     </row>
     <row r="567" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A567" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B567" s="32">
         <v>2</v>
       </c>
       <c r="C567" s="32" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G567" s="32" t="s">
         <v>145</v>
@@ -10776,13 +10776,13 @@
     </row>
     <row r="568" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A568" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B568" s="32">
         <v>3</v>
       </c>
       <c r="C568" s="32" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="G568" s="32" t="s">
         <v>146</v>
@@ -10790,13 +10790,13 @@
     </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A569" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B569" s="32">
         <v>4</v>
       </c>
       <c r="C569" s="32" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G569" s="32" t="s">
         <v>113</v>
@@ -10804,13 +10804,13 @@
     </row>
     <row r="570" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A570" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B570" s="32">
         <v>5</v>
       </c>
       <c r="C570" s="32" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="G570" s="32" t="s">
         <v>114</v>
@@ -10818,13 +10818,13 @@
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A571" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B571" s="32">
         <v>6</v>
       </c>
       <c r="C571" s="32" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G571" s="32" t="s">
         <v>127</v>
@@ -10832,13 +10832,13 @@
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A572" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B572" s="32">
         <v>7</v>
       </c>
       <c r="C572" s="32" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G572" s="32" t="s">
         <v>147</v>
@@ -10846,13 +10846,13 @@
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A573" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B573" s="32">
         <v>8</v>
       </c>
       <c r="C573" s="32" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G573" s="32" t="s">
         <v>117</v>
@@ -10860,13 +10860,13 @@
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A574" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B574" s="32">
         <v>9</v>
       </c>
       <c r="C574" s="32" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G574" s="32" t="s">
         <v>118</v>
@@ -10874,13 +10874,13 @@
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A575" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B575" s="32">
         <v>10</v>
       </c>
       <c r="C575" s="32" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G575" s="32" t="s">
         <v>148</v>
@@ -10888,13 +10888,13 @@
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A576" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B576" s="32">
         <v>11</v>
       </c>
       <c r="C576" s="32" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G576" s="32" t="s">
         <v>147</v>
@@ -10902,13 +10902,13 @@
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A577" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B577" s="32">
         <v>12</v>
       </c>
       <c r="C577" s="32" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G577" s="32" t="s">
         <v>118</v>
@@ -10916,13 +10916,13 @@
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A578" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B578" s="32">
         <v>13</v>
       </c>
       <c r="C578" s="32" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G578" s="32" t="s">
         <v>149</v>
@@ -10930,13 +10930,13 @@
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A579" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B579" s="32">
         <v>14</v>
       </c>
       <c r="C579" s="32" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G579" s="32" t="s">
         <v>150</v>
@@ -10944,13 +10944,13 @@
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A580" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B580" s="32">
         <v>15</v>
       </c>
       <c r="C580" s="32" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="G580" s="32" t="s">
         <v>148</v>
@@ -10958,13 +10958,13 @@
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A581" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B581" s="32">
         <v>16</v>
       </c>
       <c r="C581" s="32" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G581" s="32" t="s">
         <v>151</v>
@@ -10972,13 +10972,13 @@
     </row>
     <row r="582" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A582" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B582" s="32">
         <v>17</v>
       </c>
       <c r="C582" s="32" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G582" s="32" t="s">
         <v>124</v>
@@ -10986,13 +10986,13 @@
     </row>
     <row r="583" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A583" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B583" s="32">
         <v>18</v>
       </c>
       <c r="C583" s="32" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G583" s="32" t="s">
         <v>123</v>
@@ -11000,13 +11000,13 @@
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A584" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B584" s="32">
         <v>19</v>
       </c>
       <c r="C584" s="32" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="G584" s="32" t="s">
         <v>112</v>
@@ -11014,13 +11014,13 @@
     </row>
     <row r="585" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A585" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B585" s="32">
         <v>20</v>
       </c>
       <c r="C585" s="32" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G585" s="32" t="s">
         <v>152</v>
@@ -11028,13 +11028,13 @@
     </row>
     <row r="586" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A586" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B586" s="32">
         <v>21</v>
       </c>
       <c r="C586" s="32" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="G586" s="32" t="s">
         <v>146</v>
@@ -11042,13 +11042,13 @@
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A587" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B587" s="32">
         <v>22</v>
       </c>
       <c r="C587" s="32" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G587" s="32" t="s">
         <v>114</v>
@@ -11056,13 +11056,13 @@
     </row>
     <row r="588" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A588" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B588" s="32">
         <v>23</v>
       </c>
       <c r="C588" s="32" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G588" s="32" t="s">
         <v>127</v>
@@ -11070,13 +11070,13 @@
     </row>
     <row r="589" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A589" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B589" s="32">
         <v>24</v>
       </c>
       <c r="C589" s="32" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G589" s="32" t="s">
         <v>153</v>
@@ -11084,13 +11084,13 @@
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A590" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B590" s="32">
         <v>25</v>
       </c>
       <c r="C590" s="32" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="G590" s="32" t="s">
         <v>150</v>
@@ -11098,13 +11098,13 @@
     </row>
     <row r="591" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A591" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B591" s="32">
         <v>26</v>
       </c>
       <c r="C591" s="32" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G591" s="32" t="s">
         <v>117</v>
@@ -11112,13 +11112,13 @@
     </row>
     <row r="592" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A592" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B592" s="32">
         <v>27</v>
       </c>
       <c r="C592" s="32" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="G592" s="32" t="s">
         <v>150</v>
@@ -11126,13 +11126,13 @@
     </row>
     <row r="593" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A593" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B593" s="32">
         <v>28</v>
       </c>
       <c r="C593" s="32" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G593" s="32" t="s">
         <v>154</v>
@@ -11140,13 +11140,13 @@
     </row>
     <row r="594" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A594" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B594" s="32">
         <v>29</v>
       </c>
       <c r="C594" s="32" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G594" s="32" t="s">
         <v>146</v>
@@ -11154,13 +11154,13 @@
     </row>
     <row r="595" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A595" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B595" s="32">
         <v>30</v>
       </c>
       <c r="C595" s="32" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G595" s="32" t="s">
         <v>127</v>
@@ -11168,13 +11168,13 @@
     </row>
     <row r="596" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A596" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B596" s="32">
         <v>31</v>
       </c>
       <c r="C596" s="32" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G596" s="32" t="s">
         <v>128</v>
@@ -11182,13 +11182,13 @@
     </row>
     <row r="597" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A597" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B597" s="32">
         <v>32</v>
       </c>
       <c r="C597" s="32" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G597" s="32" t="s">
         <v>153</v>
@@ -11196,13 +11196,13 @@
     </row>
     <row r="598" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A598" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B598" s="32">
         <v>33</v>
       </c>
       <c r="C598" s="32" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="G598" s="32" t="s">
         <v>116</v>
@@ -11210,13 +11210,13 @@
     </row>
     <row r="599" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A599" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B599" s="32">
         <v>34</v>
       </c>
       <c r="C599" s="32" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G599" s="32" t="s">
         <v>148</v>
@@ -11224,13 +11224,13 @@
     </row>
     <row r="600" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A600" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B600" s="32">
         <v>35</v>
       </c>
       <c r="C600" s="32" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G600" s="32" t="s">
         <v>148</v>
@@ -11238,13 +11238,13 @@
     </row>
     <row r="601" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A601" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B601" s="32">
         <v>36</v>
       </c>
       <c r="C601" s="32" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G601" s="32" t="s">
         <v>124</v>
@@ -11252,13 +11252,13 @@
     </row>
     <row r="602" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A602" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B602" s="32">
         <v>37</v>
       </c>
       <c r="C602" s="32" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="G602" s="32" t="s">
         <v>112</v>
@@ -11266,13 +11266,13 @@
     </row>
     <row r="603" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A603" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B603" s="32">
         <v>38</v>
       </c>
       <c r="C603" s="32" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G603" s="32" t="s">
         <v>113</v>
@@ -11280,13 +11280,13 @@
     </row>
     <row r="604" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A604" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B604" s="32">
         <v>39</v>
       </c>
       <c r="C604" s="32" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G604" s="32" t="s">
         <v>131</v>
@@ -11294,13 +11294,13 @@
     </row>
     <row r="605" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A605" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B605" s="32">
         <v>40</v>
       </c>
       <c r="C605" s="32" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G605" s="32" t="s">
         <v>151</v>
@@ -11308,13 +11308,13 @@
     </row>
     <row r="606" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A606" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B606" s="32">
         <v>1</v>
       </c>
       <c r="C606" s="32" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="G606" s="32" t="s">
         <v>133</v>
@@ -11322,13 +11322,13 @@
     </row>
     <row r="607" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A607" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B607" s="32">
         <v>2</v>
       </c>
       <c r="C607" s="32" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G607" s="32" t="s">
         <v>86</v>
@@ -11336,13 +11336,13 @@
     </row>
     <row r="608" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A608" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B608" s="32">
         <v>3</v>
       </c>
       <c r="C608" s="32" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G608" s="32" t="s">
         <v>86</v>
@@ -11350,13 +11350,13 @@
     </row>
     <row r="609" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A609" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B609" s="32">
         <v>4</v>
       </c>
       <c r="C609" s="32" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G609" s="32" t="s">
         <v>87</v>
@@ -11364,13 +11364,13 @@
     </row>
     <row r="610" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A610" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B610" s="32">
         <v>5</v>
       </c>
       <c r="C610" s="32" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G610" s="32" t="s">
         <v>139</v>
@@ -11378,13 +11378,13 @@
     </row>
     <row r="611" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A611" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B611" s="32">
         <v>6</v>
       </c>
       <c r="C611" s="32" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G611" s="32" t="s">
         <v>89</v>
@@ -11392,13 +11392,13 @@
     </row>
     <row r="612" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A612" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B612" s="32">
         <v>7</v>
       </c>
       <c r="C612" s="32" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G612" s="32" t="s">
         <v>140</v>
@@ -11406,13 +11406,13 @@
     </row>
     <row r="613" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A613" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B613" s="32">
         <v>8</v>
       </c>
       <c r="C613" s="32" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G613" s="32" t="s">
         <v>133</v>
@@ -11420,13 +11420,13 @@
     </row>
     <row r="614" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A614" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B614" s="32">
         <v>9</v>
       </c>
       <c r="C614" s="32" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="G614" s="32" t="s">
         <v>141</v>
@@ -11434,13 +11434,13 @@
     </row>
     <row r="615" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A615" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B615" s="32">
         <v>10</v>
       </c>
       <c r="C615" s="32" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G615" s="32" t="s">
         <v>141</v>
@@ -11448,13 +11448,13 @@
     </row>
     <row r="616" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A616" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B616" s="32">
         <v>11</v>
       </c>
       <c r="C616" s="32" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="G616" s="32" t="s">
         <v>141</v>
@@ -11462,13 +11462,13 @@
     </row>
     <row r="617" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A617" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B617" s="32">
         <v>12</v>
       </c>
       <c r="C617" s="32" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G617" s="32" t="s">
         <v>142</v>
@@ -11476,13 +11476,13 @@
     </row>
     <row r="618" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A618" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B618" s="32">
         <v>13</v>
       </c>
       <c r="C618" s="32" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G618" s="32" t="s">
         <v>139</v>
@@ -11490,13 +11490,13 @@
     </row>
     <row r="619" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A619" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B619" s="32">
         <v>14</v>
       </c>
       <c r="C619" s="32" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G619" s="32" t="s">
         <v>143</v>
@@ -11504,13 +11504,13 @@
     </row>
     <row r="620" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A620" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B620" s="32">
         <v>15</v>
       </c>
       <c r="C620" s="32" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="G620" s="32" t="s">
         <v>144</v>
@@ -11518,13 +11518,13 @@
     </row>
     <row r="621" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A621" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B621" s="32">
         <v>16</v>
       </c>
       <c r="C621" s="32" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G621" s="32" t="s">
         <v>86</v>
@@ -11532,13 +11532,13 @@
     </row>
     <row r="622" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A622" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B622" s="32">
         <v>17</v>
       </c>
       <c r="C622" s="32" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G622" s="32" t="s">
         <v>91</v>
@@ -11546,13 +11546,13 @@
     </row>
     <row r="623" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A623" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B623" s="32">
         <v>18</v>
       </c>
       <c r="C623" s="32" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G623" s="32" t="s">
         <v>91</v>
@@ -11560,13 +11560,13 @@
     </row>
     <row r="624" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A624" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B624" s="32">
         <v>19</v>
       </c>
       <c r="C624" s="32" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="G624" s="32" t="s">
         <v>92</v>
@@ -11574,13 +11574,13 @@
     </row>
     <row r="625" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A625" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B625" s="32">
         <v>20</v>
       </c>
       <c r="C625" s="32" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G625" s="32" t="s">
         <v>93</v>
@@ -11588,13 +11588,13 @@
     </row>
     <row r="626" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A626" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B626" s="32">
         <v>21</v>
       </c>
       <c r="C626" s="32" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="G626" s="32" t="s">
         <v>93</v>
@@ -11602,13 +11602,13 @@
     </row>
     <row r="627" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A627" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B627" s="32">
         <v>22</v>
       </c>
       <c r="C627" s="32" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G627" s="32" t="s">
         <v>94</v>
@@ -11616,13 +11616,13 @@
     </row>
     <row r="628" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A628" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B628" s="32">
         <v>23</v>
       </c>
       <c r="C628" s="32" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="G628" s="32" t="s">
         <v>94</v>
@@ -11630,13 +11630,13 @@
     </row>
     <row r="629" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A629" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B629" s="32">
         <v>24</v>
       </c>
       <c r="C629" s="32" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G629" s="32" t="s">
         <v>94</v>
@@ -11644,13 +11644,13 @@
     </row>
     <row r="630" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A630" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B630" s="32">
         <v>25</v>
       </c>
       <c r="C630" s="32" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="G630" s="32" t="s">
         <v>94</v>
@@ -11658,13 +11658,13 @@
     </row>
     <row r="631" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A631" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B631" s="32">
         <v>26</v>
       </c>
       <c r="C631" s="32" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G631" s="32" t="s">
         <v>95</v>
@@ -11672,13 +11672,13 @@
     </row>
     <row r="632" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A632" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B632" s="32">
         <v>27</v>
       </c>
       <c r="C632" s="32" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="G632" s="32" t="s">
         <v>95</v>
@@ -11686,13 +11686,13 @@
     </row>
     <row r="633" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A633" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B633" s="32">
         <v>28</v>
       </c>
       <c r="C633" s="32" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G633" s="32" t="s">
         <v>141</v>
@@ -11700,13 +11700,13 @@
     </row>
     <row r="634" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A634" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B634" s="32">
         <v>29</v>
       </c>
       <c r="C634" s="32" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="G634" s="32" t="s">
         <v>96</v>
@@ -11714,13 +11714,13 @@
     </row>
     <row r="635" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A635" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B635" s="32">
         <v>30</v>
       </c>
       <c r="C635" s="32" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G635" s="32" t="s">
         <v>86</v>
@@ -11728,13 +11728,13 @@
     </row>
     <row r="636" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A636" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B636" s="32">
         <v>31</v>
       </c>
       <c r="C636" s="32" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="G636" s="32" t="s">
         <v>141</v>
@@ -11742,13 +11742,13 @@
     </row>
     <row r="637" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A637" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B637" s="32">
         <v>32</v>
       </c>
       <c r="C637" s="32" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G637" s="32" t="s">
         <v>94</v>
@@ -11756,13 +11756,13 @@
     </row>
     <row r="638" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A638" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B638" s="32">
         <v>33</v>
       </c>
       <c r="C638" s="32" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="G638" s="32" t="s">
         <v>86</v>
@@ -11770,13 +11770,13 @@
     </row>
     <row r="639" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A639" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B639" s="32">
         <v>34</v>
       </c>
       <c r="C639" s="32" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G639" s="32" t="s">
         <v>92</v>
@@ -11784,13 +11784,13 @@
     </row>
     <row r="640" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A640" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B640" s="32">
         <v>35</v>
       </c>
       <c r="C640" s="32" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G640" s="32" t="s">
         <v>94</v>
@@ -11798,13 +11798,13 @@
     </row>
     <row r="641" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A641" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B641" s="32">
         <v>36</v>
       </c>
       <c r="C641" s="32" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G641" s="32" t="s">
         <v>95</v>
@@ -11812,13 +11812,13 @@
     </row>
     <row r="642" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A642" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B642" s="32">
         <v>37</v>
       </c>
       <c r="C642" s="32" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="G642" s="32" t="s">
         <v>140</v>
@@ -11826,13 +11826,13 @@
     </row>
     <row r="643" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A643" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B643" s="32">
         <v>38</v>
       </c>
       <c r="C643" s="32" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G643" s="32" t="s">
         <v>94</v>
@@ -11840,13 +11840,13 @@
     </row>
     <row r="644" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A644" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B644" s="32">
         <v>1</v>
       </c>
       <c r="C644" s="32" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="G644" s="32" t="s">
         <v>67</v>
@@ -11854,13 +11854,13 @@
     </row>
     <row r="645" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A645" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B645" s="32">
         <v>2</v>
       </c>
       <c r="C645" s="32" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G645" s="32" t="s">
         <v>68</v>
@@ -11868,13 +11868,13 @@
     </row>
     <row r="646" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A646" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B646" s="32">
         <v>3</v>
       </c>
       <c r="C646" s="32" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="G646" s="32" t="s">
         <v>69</v>
@@ -11882,13 +11882,13 @@
     </row>
     <row r="647" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A647" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B647" s="32">
         <v>4</v>
       </c>
       <c r="C647" s="32" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G647" s="32" t="s">
         <v>70</v>
@@ -11896,13 +11896,13 @@
     </row>
     <row r="648" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A648" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B648" s="32">
         <v>5</v>
       </c>
       <c r="C648" s="32" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="G648" s="32" t="s">
         <v>71</v>
@@ -11910,13 +11910,13 @@
     </row>
     <row r="649" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A649" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B649" s="32">
         <v>6</v>
       </c>
       <c r="C649" s="32" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G649" s="32" t="s">
         <v>72</v>
@@ -11924,13 +11924,13 @@
     </row>
     <row r="650" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A650" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B650" s="32">
         <v>7</v>
       </c>
       <c r="C650" s="32" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="G650" s="32" t="s">
         <v>72</v>
@@ -11938,27 +11938,27 @@
     </row>
     <row r="651" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A651" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B651" s="32">
         <v>8</v>
       </c>
       <c r="C651" s="32" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G651" s="32" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="652" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A652" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B652" s="32">
         <v>9</v>
       </c>
       <c r="C652" s="32" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="G652" s="32" t="s">
         <v>134</v>
@@ -11966,13 +11966,13 @@
     </row>
     <row r="653" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A653" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B653" s="32">
         <v>10</v>
       </c>
       <c r="C653" s="32" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G653" s="32" t="s">
         <v>162</v>
@@ -11980,13 +11980,13 @@
     </row>
     <row r="654" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A654" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B654" s="32">
         <v>11</v>
       </c>
       <c r="C654" s="32" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G654" s="32" t="s">
         <v>162</v>
@@ -11994,13 +11994,13 @@
     </row>
     <row r="655" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A655" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B655" s="32">
         <v>12</v>
       </c>
       <c r="C655" s="32" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G655" s="32" t="s">
         <v>73</v>
@@ -12008,13 +12008,13 @@
     </row>
     <row r="656" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A656" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B656" s="32">
         <v>13</v>
       </c>
       <c r="C656" s="32" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="G656" s="32" t="s">
         <v>74</v>
@@ -12022,13 +12022,13 @@
     </row>
     <row r="657" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A657" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B657" s="32">
         <v>14</v>
       </c>
       <c r="C657" s="32" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G657" s="32" t="s">
         <v>135</v>
@@ -12036,13 +12036,13 @@
     </row>
     <row r="658" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A658" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B658" s="32">
         <v>15</v>
       </c>
       <c r="C658" s="32" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G658" s="32" t="s">
         <v>136</v>
@@ -12050,13 +12050,13 @@
     </row>
     <row r="659" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A659" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B659" s="32">
         <v>16</v>
       </c>
       <c r="C659" s="32" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G659" s="32" t="s">
         <v>75</v>
@@ -12064,13 +12064,13 @@
     </row>
     <row r="660" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A660" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B660" s="32">
         <v>17</v>
       </c>
       <c r="C660" s="32" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="G660" s="32" t="s">
         <v>75</v>
@@ -12078,13 +12078,13 @@
     </row>
     <row r="661" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A661" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B661" s="32">
         <v>18</v>
       </c>
       <c r="C661" s="32" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G661" s="32" t="s">
         <v>75</v>
@@ -12092,13 +12092,13 @@
     </row>
     <row r="662" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A662" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B662" s="32">
         <v>19</v>
       </c>
       <c r="C662" s="32" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G662" s="32" t="s">
         <v>76</v>
@@ -12106,13 +12106,13 @@
     </row>
     <row r="663" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A663" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B663" s="32">
         <v>20</v>
       </c>
       <c r="C663" s="32" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G663" s="32" t="s">
         <v>76</v>
@@ -12120,13 +12120,13 @@
     </row>
     <row r="664" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A664" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B664" s="32">
         <v>21</v>
       </c>
       <c r="C664" s="32" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="G664" s="32" t="s">
         <v>77</v>
@@ -12134,13 +12134,13 @@
     </row>
     <row r="665" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A665" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B665" s="32">
         <v>22</v>
       </c>
       <c r="C665" s="32" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G665" s="32" t="s">
         <v>77</v>
@@ -12148,13 +12148,13 @@
     </row>
     <row r="666" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A666" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B666" s="32">
         <v>23</v>
       </c>
       <c r="C666" s="32" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G666" s="32" t="s">
         <v>77</v>
@@ -12162,13 +12162,13 @@
     </row>
     <row r="667" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A667" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B667" s="32">
         <v>24</v>
       </c>
       <c r="C667" s="32" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G667" s="32" t="s">
         <v>79</v>
@@ -12176,13 +12176,13 @@
     </row>
     <row r="668" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A668" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B668" s="32">
         <v>25</v>
       </c>
       <c r="C668" s="32" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="G668" s="32" t="s">
         <v>80</v>
@@ -12190,13 +12190,13 @@
     </row>
     <row r="669" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A669" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B669" s="32">
         <v>26</v>
       </c>
       <c r="C669" s="32" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G669" s="32" t="s">
         <v>78</v>
@@ -12204,13 +12204,13 @@
     </row>
     <row r="670" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A670" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B670" s="32">
         <v>27</v>
       </c>
       <c r="C670" s="32" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="G670" s="32" t="s">
         <v>78</v>
@@ -12218,13 +12218,13 @@
     </row>
     <row r="671" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A671" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B671" s="32">
         <v>28</v>
       </c>
       <c r="C671" s="32" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G671" s="32" t="s">
         <v>81</v>
@@ -12232,13 +12232,13 @@
     </row>
     <row r="672" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A672" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B672" s="32">
         <v>29</v>
       </c>
       <c r="C672" s="32" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="G672" s="32" t="s">
         <v>83</v>
@@ -12246,13 +12246,13 @@
     </row>
     <row r="673" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A673" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B673" s="32">
         <v>30</v>
       </c>
       <c r="C673" s="32" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G673" s="32" t="s">
         <v>68</v>
@@ -12260,13 +12260,13 @@
     </row>
     <row r="674" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A674" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B674" s="32">
         <v>31</v>
       </c>
       <c r="C674" s="32" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="G674" s="32" t="s">
         <v>69</v>
@@ -12274,13 +12274,13 @@
     </row>
     <row r="675" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A675" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B675" s="32">
         <v>32</v>
       </c>
       <c r="C675" s="32" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G675" s="32" t="s">
         <v>72</v>
@@ -12288,13 +12288,13 @@
     </row>
     <row r="676" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A676" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B676" s="32">
         <v>33</v>
       </c>
       <c r="C676" s="32" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="G676" s="32" t="s">
         <v>137</v>
@@ -12302,27 +12302,27 @@
     </row>
     <row r="677" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A677" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B677" s="32">
         <v>34</v>
       </c>
       <c r="C677" s="32" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G677" s="32" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="678" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A678" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B678" s="32">
         <v>35</v>
       </c>
       <c r="C678" s="32" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="G678" s="32" t="s">
         <v>138</v>
@@ -12330,13 +12330,13 @@
     </row>
     <row r="679" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A679" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B679" s="32">
         <v>36</v>
       </c>
       <c r="C679" s="32" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G679" s="32" t="s">
         <v>76</v>
@@ -12344,13 +12344,13 @@
     </row>
     <row r="680" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A680" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B680" s="32">
         <v>37</v>
       </c>
       <c r="C680" s="32" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="G680" s="32" t="s">
         <v>136</v>
@@ -12358,13 +12358,13 @@
     </row>
     <row r="681" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A681" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B681" s="32">
         <v>38</v>
       </c>
       <c r="C681" s="32" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G681" s="32" t="s">
         <v>75</v>
@@ -12372,13 +12372,13 @@
     </row>
     <row r="682" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A682" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B682" s="32">
         <v>39</v>
       </c>
       <c r="C682" s="32" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G682" s="32" t="s">
         <v>84</v>
@@ -12386,13 +12386,13 @@
     </row>
     <row r="683" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A683" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B683" s="32">
         <v>40</v>
       </c>
       <c r="C683" s="32" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G683" s="32" t="s">
         <v>77</v>
@@ -12410,7 +12410,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12437,10 +12437,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>334</v>
+        <v>535</v>
       </c>
       <c r="B2" t="s">
-        <v>333</v>
+        <v>536</v>
       </c>
       <c r="C2" t="s">
         <v>26</v>
@@ -12470,7 +12470,7 @@
         <v>63</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C1" s="37" t="s">
         <v>64</v>
@@ -12479,10 +12479,10 @@
         <v>65</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F1" s="37" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="I1" s="37" t="s">
         <v>63</v>
@@ -12491,10 +12491,10 @@
         <v>63</v>
       </c>
       <c r="L1" s="37" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="N1" s="37" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="O1" s="37" t="s">
         <v>64</v>
@@ -12509,7 +12509,7 @@
         <v>65</v>
       </c>
       <c r="U1" s="37" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -12545,7 +12545,7 @@
         <v>111</v>
       </c>
       <c r="N2" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="O2" s="38" t="s">
         <v>133</v>
@@ -12596,10 +12596,10 @@
         <v>99</v>
       </c>
       <c r="N3" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="O3" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="Q3" s="38" t="s">
         <v>112</v>
@@ -12647,7 +12647,7 @@
         <v>66</v>
       </c>
       <c r="N4" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="O4" s="38" t="s">
         <v>91</v>
@@ -12693,10 +12693,10 @@
         <v>85</v>
       </c>
       <c r="L5" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="N5" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="O5" s="38" t="s">
         <v>94</v>
@@ -12755,7 +12755,7 @@
         <v>153</v>
       </c>
       <c r="U6" s="38" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -12797,7 +12797,7 @@
         <v>153</v>
       </c>
       <c r="U7" s="38" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -12814,7 +12814,7 @@
         <v>99</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F8" s="38">
         <v>7</v>
@@ -12856,7 +12856,7 @@
         <v>99</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F9" s="38">
         <v>8</v>
@@ -12914,7 +12914,7 @@
         <v>112</v>
       </c>
       <c r="Q10" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="R10" s="38" t="s">
         <v>95</v>
@@ -12923,7 +12923,7 @@
         <v>86</v>
       </c>
       <c r="U10" s="38" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -12956,7 +12956,7 @@
         <v>113</v>
       </c>
       <c r="Q11" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="R11" s="38" t="s">
         <v>141</v>
@@ -12965,7 +12965,7 @@
         <v>86</v>
       </c>
       <c r="U11" s="38" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -12998,7 +12998,7 @@
         <v>116</v>
       </c>
       <c r="Q12" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="R12" s="38" t="s">
         <v>142</v>
@@ -13040,7 +13040,7 @@
         <v>111</v>
       </c>
       <c r="Q13" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="R13" s="38" t="s">
         <v>96</v>
@@ -13108,7 +13108,7 @@
         <v>99</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F15" s="38">
         <v>14</v>
@@ -13363,7 +13363,7 @@
         <v>147</v>
       </c>
       <c r="U21" s="38" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -13380,7 +13380,7 @@
         <v>99</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F22" s="38">
         <v>21</v>
@@ -13399,7 +13399,7 @@
         <v>147</v>
       </c>
       <c r="U22" s="38" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
@@ -13429,7 +13429,7 @@
         <v>66</v>
       </c>
       <c r="R23" s="38" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="T23" s="41" t="s">
         <v>68</v>
@@ -13573,7 +13573,7 @@
         <v>66</v>
       </c>
       <c r="R27" s="38" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="T27" s="38" t="s">
         <v>89</v>
@@ -13632,7 +13632,7 @@
         <v>100</v>
       </c>
       <c r="E29" s="38" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F29" s="38">
         <v>28</v>
@@ -13776,7 +13776,7 @@
         <v>99</v>
       </c>
       <c r="E33" s="38" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F33" s="38">
         <v>32</v>
@@ -13903,7 +13903,7 @@
         <v>117</v>
       </c>
       <c r="U36" s="38" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
@@ -13920,7 +13920,7 @@
         <v>99</v>
       </c>
       <c r="E37" s="38" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F37" s="38">
         <v>33</v>
@@ -13956,7 +13956,7 @@
         <v>106</v>
       </c>
       <c r="E38" s="38" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F38" s="38">
         <v>34</v>
@@ -14011,7 +14011,7 @@
         <v>100</v>
       </c>
       <c r="U39" s="38" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
@@ -14244,7 +14244,7 @@
         <v>147</v>
       </c>
       <c r="E46" s="38" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F46" s="38">
         <v>7</v>
@@ -14352,7 +14352,7 @@
         <v>148</v>
       </c>
       <c r="E49" s="38" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F49" s="38">
         <v>10</v>
@@ -14388,7 +14388,7 @@
         <v>147</v>
       </c>
       <c r="E50" s="38" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F50" s="38">
         <v>11</v>
@@ -14460,7 +14460,7 @@
         <v>149</v>
       </c>
       <c r="E52" s="38" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F52" s="38">
         <v>13</v>
@@ -14803,7 +14803,7 @@
         <v>75</v>
       </c>
       <c r="U61" s="39" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.25">
@@ -14856,7 +14856,7 @@
         <v>153</v>
       </c>
       <c r="E63" s="38" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F63" s="38">
         <v>24</v>
@@ -14892,7 +14892,7 @@
         <v>150</v>
       </c>
       <c r="E64" s="38" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F64" s="38">
         <v>25</v>
@@ -14911,7 +14911,7 @@
         <v>92</v>
       </c>
       <c r="U64" s="38" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.25">
@@ -14928,7 +14928,7 @@
         <v>117</v>
       </c>
       <c r="E65" s="38" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F65" s="38">
         <v>26</v>
@@ -14964,7 +14964,7 @@
         <v>150</v>
       </c>
       <c r="E66" s="38" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F66" s="38">
         <v>27</v>
@@ -15144,7 +15144,7 @@
         <v>153</v>
       </c>
       <c r="E71" s="38" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F71" s="38">
         <v>32</v>
@@ -15163,7 +15163,7 @@
         <v>149</v>
       </c>
       <c r="U71" s="38" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.25">
@@ -15180,7 +15180,7 @@
         <v>116</v>
       </c>
       <c r="E72" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F72" s="38">
         <v>33</v>
@@ -15422,7 +15422,7 @@
         <v>151</v>
       </c>
       <c r="E79" s="38" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F79" s="38">
         <v>40</v>
@@ -15443,7 +15443,7 @@
         <v>85</v>
       </c>
       <c r="B80" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C80" s="38" t="s">
         <v>133</v>
@@ -15473,7 +15473,7 @@
         <v>85</v>
       </c>
       <c r="B81" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C81" s="38" t="s">
         <v>133</v>
@@ -15503,7 +15503,7 @@
         <v>85</v>
       </c>
       <c r="B82" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C82" s="38" t="s">
         <v>133</v>
@@ -15533,7 +15533,7 @@
         <v>85</v>
       </c>
       <c r="B83" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C83" s="38" t="s">
         <v>91</v>
@@ -15563,7 +15563,7 @@
         <v>85</v>
       </c>
       <c r="B84" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C84" s="38" t="s">
         <v>133</v>
@@ -15585,7 +15585,7 @@
         <v>106</v>
       </c>
       <c r="U84" s="38" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.25">
@@ -15593,7 +15593,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C85" s="38" t="s">
         <v>133</v>
@@ -15623,7 +15623,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C86" s="38" t="s">
         <v>94</v>
@@ -15645,7 +15645,7 @@
         <v>80</v>
       </c>
       <c r="U86" s="38" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.25">
@@ -15653,7 +15653,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C87" s="38" t="s">
         <v>133</v>
@@ -15683,16 +15683,16 @@
         <v>85</v>
       </c>
       <c r="B88" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C88" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D88" s="38" t="s">
         <v>141</v>
       </c>
       <c r="E88" s="38" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F88" s="38">
         <v>9</v>
@@ -15713,10 +15713,10 @@
         <v>85</v>
       </c>
       <c r="B89" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C89" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D89" s="38" t="s">
         <v>141</v>
@@ -15735,7 +15735,7 @@
         <v>94</v>
       </c>
       <c r="U89" s="38" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.25">
@@ -15743,16 +15743,16 @@
         <v>85</v>
       </c>
       <c r="B90" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C90" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D90" s="38" t="s">
         <v>141</v>
       </c>
       <c r="E90" s="38" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F90" s="38">
         <v>11</v>
@@ -15765,7 +15765,7 @@
         <v>94</v>
       </c>
       <c r="U90" s="38" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.25">
@@ -15773,10 +15773,10 @@
         <v>85</v>
       </c>
       <c r="B91" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C91" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D91" s="38" t="s">
         <v>142</v>
@@ -15803,7 +15803,7 @@
         <v>85</v>
       </c>
       <c r="B92" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C92" s="38" t="s">
         <v>133</v>
@@ -15833,7 +15833,7 @@
         <v>85</v>
       </c>
       <c r="B93" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C93" s="38" t="s">
         <v>133</v>
@@ -15863,7 +15863,7 @@
         <v>85</v>
       </c>
       <c r="B94" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C94" s="38" t="s">
         <v>94</v>
@@ -15893,7 +15893,7 @@
         <v>85</v>
       </c>
       <c r="B95" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C95" s="38" t="s">
         <v>133</v>
@@ -15902,7 +15902,7 @@
         <v>86</v>
       </c>
       <c r="E95" s="38" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F95" s="38">
         <v>16</v>
@@ -15923,7 +15923,7 @@
         <v>85</v>
       </c>
       <c r="B96" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C96" s="38" t="s">
         <v>91</v>
@@ -15953,7 +15953,7 @@
         <v>85</v>
       </c>
       <c r="B97" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C97" s="38" t="s">
         <v>91</v>
@@ -15983,7 +15983,7 @@
         <v>85</v>
       </c>
       <c r="B98" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C98" s="38" t="s">
         <v>94</v>
@@ -15992,7 +15992,7 @@
         <v>92</v>
       </c>
       <c r="E98" s="38" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F98" s="38">
         <v>19</v>
@@ -16013,7 +16013,7 @@
         <v>85</v>
       </c>
       <c r="B99" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C99" s="38" t="s">
         <v>133</v>
@@ -16035,7 +16035,7 @@
         <v>116</v>
       </c>
       <c r="U99" s="38" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.25">
@@ -16043,7 +16043,7 @@
         <v>85</v>
       </c>
       <c r="B100" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C100" s="38" t="s">
         <v>133</v>
@@ -16073,7 +16073,7 @@
         <v>85</v>
       </c>
       <c r="B101" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C101" s="38" t="s">
         <v>94</v>
@@ -16082,7 +16082,7 @@
         <v>94</v>
       </c>
       <c r="E101" s="38" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F101" s="38">
         <v>22</v>
@@ -16103,7 +16103,7 @@
         <v>85</v>
       </c>
       <c r="B102" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C102" s="38" t="s">
         <v>94</v>
@@ -16112,7 +16112,7 @@
         <v>94</v>
       </c>
       <c r="E102" s="38" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F102" s="38">
         <v>23</v>
@@ -16133,7 +16133,7 @@
         <v>85</v>
       </c>
       <c r="B103" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C103" s="38" t="s">
         <v>94</v>
@@ -16152,7 +16152,7 @@
         <v>24 (PIELA V)</v>
       </c>
       <c r="T103" s="38" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="U103" s="38" t="s">
         <v>160</v>
@@ -16163,7 +16163,7 @@
         <v>85</v>
       </c>
       <c r="B104" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C104" s="38" t="s">
         <v>94</v>
@@ -16193,10 +16193,10 @@
         <v>85</v>
       </c>
       <c r="B105" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C105" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D105" s="38" t="s">
         <v>95</v>
@@ -16215,7 +16215,7 @@
         <v>134</v>
       </c>
       <c r="U105" s="38" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.25">
@@ -16223,10 +16223,10 @@
         <v>85</v>
       </c>
       <c r="B106" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C106" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D106" s="38" t="s">
         <v>95</v>
@@ -16253,16 +16253,16 @@
         <v>85</v>
       </c>
       <c r="B107" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C107" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D107" s="38" t="s">
         <v>141</v>
       </c>
       <c r="E107" s="38" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F107" s="38">
         <v>28</v>
@@ -16283,10 +16283,10 @@
         <v>85</v>
       </c>
       <c r="B108" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C108" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D108" s="38" t="s">
         <v>96</v>
@@ -16302,10 +16302,10 @@
         <v>29 (NAGARÉ)</v>
       </c>
       <c r="T108" s="38" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="U108" s="38" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.25">
@@ -16313,7 +16313,7 @@
         <v>85</v>
       </c>
       <c r="B109" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C109" s="38" t="s">
         <v>133</v>
@@ -16322,7 +16322,7 @@
         <v>86</v>
       </c>
       <c r="E109" s="38" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F109" s="38">
         <v>30</v>
@@ -16343,10 +16343,10 @@
         <v>85</v>
       </c>
       <c r="B110" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C110" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D110" s="38" t="s">
         <v>141</v>
@@ -16373,7 +16373,7 @@
         <v>85</v>
       </c>
       <c r="B111" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C111" s="38" t="s">
         <v>94</v>
@@ -16403,7 +16403,7 @@
         <v>85</v>
       </c>
       <c r="B112" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C112" s="38" t="s">
         <v>133</v>
@@ -16433,7 +16433,7 @@
         <v>85</v>
       </c>
       <c r="B113" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C113" s="38" t="s">
         <v>94</v>
@@ -16463,7 +16463,7 @@
         <v>85</v>
       </c>
       <c r="B114" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C114" s="38" t="s">
         <v>94</v>
@@ -16485,7 +16485,7 @@
         <v>150</v>
       </c>
       <c r="U114" s="38" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.25">
@@ -16493,10 +16493,10 @@
         <v>85</v>
       </c>
       <c r="B115" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C115" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D115" s="38" t="s">
         <v>95</v>
@@ -16515,7 +16515,7 @@
         <v>150</v>
       </c>
       <c r="U115" s="38" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.25">
@@ -16523,7 +16523,7 @@
         <v>85</v>
       </c>
       <c r="B116" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C116" s="38" t="s">
         <v>94</v>
@@ -16553,7 +16553,7 @@
         <v>85</v>
       </c>
       <c r="B117" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C117" s="38" t="s">
         <v>94</v>
@@ -16665,7 +16665,7 @@
         <v>148</v>
       </c>
       <c r="U120" s="38" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.25">
@@ -16695,7 +16695,7 @@
         <v>151</v>
       </c>
       <c r="U121" s="38" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.25">
@@ -16799,7 +16799,7 @@
         <v>66</v>
       </c>
       <c r="D125" s="38" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E125" s="38" t="s">
         <v>160</v>
@@ -16832,7 +16832,7 @@
         <v>134</v>
       </c>
       <c r="E126" s="38" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F126" s="38">
         <v>9</v>
@@ -16995,7 +16995,7 @@
         <v>99</v>
       </c>
       <c r="U131" s="38" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.25">
@@ -17055,7 +17055,7 @@
         <v>99</v>
       </c>
       <c r="U133" s="38" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.25">
@@ -17085,7 +17085,7 @@
         <v>99</v>
       </c>
       <c r="U134" s="38" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.25">
@@ -17102,7 +17102,7 @@
         <v>75</v>
       </c>
       <c r="E135" s="38" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F135" s="38">
         <v>18</v>
@@ -17175,7 +17175,7 @@
         <v>99</v>
       </c>
       <c r="U137" s="38" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.25">
@@ -17205,7 +17205,7 @@
         <v>99</v>
       </c>
       <c r="U138" s="38" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.25">
@@ -17265,7 +17265,7 @@
         <v>99</v>
       </c>
       <c r="U140" s="38" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.25">
@@ -17312,7 +17312,7 @@
         <v>80</v>
       </c>
       <c r="E142" s="38" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F142" s="38">
         <v>25</v>
@@ -17325,7 +17325,7 @@
         <v>141</v>
       </c>
       <c r="U142" s="38" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.25">
@@ -17385,7 +17385,7 @@
         <v>141</v>
       </c>
       <c r="U144" s="38" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.25">
@@ -17415,7 +17415,7 @@
         <v>141</v>
       </c>
       <c r="U145" s="38" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.25">
@@ -17579,10 +17579,10 @@
         <v>66</v>
       </c>
       <c r="D151" s="38" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E151" s="38" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F151" s="38">
         <v>34</v>
